--- a/Emisiones GEI/13.2.xlsx
+++ b/Emisiones GEI/13.2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\Emisiones GEI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED40DAE-C4F9-4143-A1F5-4E1E9C77301D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B776DB-F72A-4B92-A5BE-B0422F807FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,9 +127,6 @@
     <t>Variación Anual Emisiones (Gas)</t>
   </si>
   <si>
-    <t>Emisiones per cápita</t>
-  </si>
-  <si>
     <t>ton</t>
   </si>
   <si>
@@ -206,6 +203,9 @@
   </si>
   <si>
     <t>Emisiones en toneladas de SF6 en el período 1990-2016</t>
+  </si>
+  <si>
+    <t>Emisiones per cápita (CO2eq)</t>
   </si>
 </sst>
 </file>
@@ -354,7 +354,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,8 +564,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -680,6 +686,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -725,7 +742,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
@@ -745,6 +762,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -883,7 +901,7 @@
     <tableColumn id="3" xr3:uid="{76F751FD-45A5-480E-850A-8C10AA7177AC}" name="Emisiones (CO2eq)" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{D71EF28D-95F5-45D8-BF17-25B44A808D86}" name="Variación Anual Emisiones (Gas)" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{6ECCF9FE-97E4-468A-94E1-722C60A5C190}" name="Variación Anual Emisiones (CO2eq)" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{F4C227F4-1EBF-4D9B-9EFF-18B5B5E5C799}" name="Emisiones per cápita" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{F4C227F4-1EBF-4D9B-9EFF-18B5B5E5C799}" name="Emisiones per cápita (CO2eq)" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1209,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00174091-61B6-420D-9723-FD13412C7073}">
-  <dimension ref="A1:L137"/>
+  <dimension ref="A1:N137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,11 +1244,11 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1241,16 +1259,16 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>27</v>
@@ -1268,7 +1286,7 @@
         <v>30</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1689,7 +1707,7 @@
         <v>-1.1632543671623539</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>1</v>
       </c>
@@ -1719,7 +1737,7 @@
         <v>-0.46997860260127666</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>1</v>
       </c>
@@ -1749,7 +1767,7 @@
         <v>-0.33129871183479037</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>1</v>
       </c>
@@ -1779,7 +1797,7 @@
         <v>-0.48150714566016173</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>1</v>
       </c>
@@ -1809,7 +1827,7 @@
         <v>0.87315966720091431</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>1</v>
       </c>
@@ -1839,7 +1857,7 @@
         <v>0.80835953813417072</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>1</v>
       </c>
@@ -1869,7 +1887,7 @@
         <v>0.34814461015909048</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>1</v>
       </c>
@@ -1899,7 +1917,7 @@
         <v>-0.1219168878683787</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>1</v>
       </c>
@@ -1929,7 +1947,7 @@
         <v>0.7376383921462647</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>1</v>
       </c>
@@ -1959,7 +1977,7 @@
         <v>1.1561988536059669</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>1</v>
       </c>
@@ -1989,7 +2007,7 @@
         <v>0.51421461429340221</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>1</v>
       </c>
@@ -2019,7 +2037,7 @@
         <v>1.2157032765982085</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>1</v>
       </c>
@@ -2049,7 +2067,7 @@
         <v>2.1383225859384645</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>1</v>
       </c>
@@ -2079,7 +2097,7 @@
         <v>1.2212366681014362</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>2</v>
       </c>
@@ -2108,8 +2126,9 @@
       <c r="L30" s="8">
         <v>0.98830823601942486</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>2</v>
       </c>
@@ -2139,7 +2158,7 @@
         <v>0.96128808225301732</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>2</v>
       </c>
@@ -5397,13 +5416,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
@@ -5412,7 +5431,7 @@
         <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>24</v>
@@ -5421,7 +5440,7 @@
         <v>23</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L2" s="7">
         <v>44314</v>
@@ -5438,13 +5457,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -5453,7 +5472,7 @@
         <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>24</v>
@@ -5462,7 +5481,7 @@
         <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L3" s="7">
         <v>44314</v>
@@ -5479,13 +5498,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -5494,7 +5513,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>24</v>
@@ -5503,7 +5522,7 @@
         <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L4" s="7">
         <v>44314</v>
@@ -5520,13 +5539,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
@@ -5535,7 +5554,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>24</v>
@@ -5544,7 +5563,7 @@
         <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L5" s="7">
         <v>44314</v>
@@ -5561,13 +5580,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
@@ -5576,7 +5595,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>24</v>
@@ -5585,7 +5604,7 @@
         <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L6" s="7">
         <v>44314</v>
